--- a/biology/Botanique/Fagonia_laevis/Fagonia_laevis.xlsx
+++ b/biology/Botanique/Fagonia_laevis/Fagonia_laevis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fagonia laevis est un arbuste pérenne de la famille des Zygophyllaceae originaire du sud-ouest des États-Unis et du nord du Mexique.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cet arbuste bas et arrondi présente un feuillage épars, constitué de feuilles opposées. Chaque feuille est en fait découpée en trois petits folioles lancéolés, de 3 à 12 mm de long (ces folioles réduits, qui présentent une faible surface d'évaporation, sont une adaptation à la sécheresse). Ses tiges vertes sont ramifiées et de section anguleuse. La plante, aux branches très ramifiées, peut atteindre entre 20 et 60 cm de hauteur[1].
-Appareil reproducteur
-La floraison survient entre mars et mai et parfois, selon la pluviosité annuelle, une deuxième fois entre novembre et janvier.
-Les fleurs apparaissent au bout des tiges. Ce sont de petites fleurs mauve pâle en forme d'étoile, qui mesurent environ 1,2 cm de diamètre. Le calice est composé de 5 sépales, la corolle de 5 pétales étroits, l'ovaire est constitué de 5 lobes et la fleur contient 10 étamines. Le fruit est une capsule à 5 lobes, de 4 à 5 mm de large, généralement couverte de poils minuscules[1],[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbuste bas et arrondi présente un feuillage épars, constitué de feuilles opposées. Chaque feuille est en fait découpée en trois petits folioles lancéolés, de 3 à 12 mm de long (ces folioles réduits, qui présentent une faible surface d'évaporation, sont une adaptation à la sécheresse). Ses tiges vertes sont ramifiées et de section anguleuse. La plante, aux branches très ramifiées, peut atteindre entre 20 et 60 cm de hauteur.
 </t>
         </is>
       </c>
@@ -543,13 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fagonia laevis pousse sur les pentes rocheuses ou au fond des vallées des zones désertiques, à une altitude inférieure à 700 m[2].
-Son aire de répartition s'étend dans le sud-ouest de l'Amérique du Nord, du sud-est de la Californie et du sud de l'Utah jusqu'au nord-ouest du Mexique[1],[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison survient entre mars et mai et parfois, selon la pluviosité annuelle, une deuxième fois entre novembre et janvier.
+Les fleurs apparaissent au bout des tiges. Ce sont de petites fleurs mauve pâle en forme d'étoile, qui mesurent environ 1,2 cm de diamètre. Le calice est composé de 5 sépales, la corolle de 5 pétales étroits, l'ovaire est constitué de 5 lobes et la fleur contient 10 étamines. Le fruit est une capsule à 5 lobes, de 4 à 5 mm de large, généralement couverte de poils minuscules,.
 </t>
         </is>
       </c>
@@ -575,12 +595,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fagonia laevis pousse sur les pentes rocheuses ou au fond des vallées des zones désertiques, à une altitude inférieure à 700 m.
+Son aire de répartition s'étend dans le sud-ouest de l'Amérique du Nord, du sud-est de la Californie et du sud de l'Utah jusqu'au nord-ouest du Mexique,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fagonia_laevis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fagonia_laevis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite en 1911 par le botaniste américain Paul Carpenter Standley dans "Proceedings of the Biological Society of Washington". Elle a parfois été considérée comme une sous-espèce ou comme une variété de Fagonia californica (Standl.), mais cette proposition a été rejetée. Fagonia longipes est une appellation synonyme de cette espèce[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1911 par le botaniste américain Paul Carpenter Standley dans "Proceedings of the Biological Society of Washington". Elle a parfois été considérée comme une sous-espèce ou comme une variété de Fagonia californica (Standl.), mais cette proposition a été rejetée. Fagonia longipes est une appellation synonyme de cette espèce.
 </t>
         </is>
       </c>
